--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st01.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st01.xlsx
@@ -2948,7 +2948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="What exactly are these \"pets\"?",values="1")]
+    <t xml:space="preserve">[Decision(options="What exactly are these 'pets'?",values="1")]
 </t>
   </si>
   <si>
@@ -3508,7 +3508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanilla"]     That must be the "boozy nightmare" Liskarm talks about sometimes...
+    <t xml:space="preserve">[name="Vanilla"]     That must be the 'boozy nightmare' Liskarm talks about sometimes...
 </t>
   </si>
   <si>
@@ -3964,7 +3964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Steward"]     (I fear the word "cute" has lost all meaning...)
+    <t xml:space="preserve">[name="Steward"]     (I fear the word 'cute' has lost all meaning...)
 </t>
   </si>
   <si>
@@ -4600,7 +4600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스튜어드"]     게다가 저번에 검사받고, 의료팀에서 약 새로 줬잖아?
+    <t xml:space="preserve">[name="스튜어드"]     게다가 저번에 검사받고, 의료부에서 약 새로 줬잖아?
 </t>
   </si>
   <si>
@@ -5000,7 +5000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스튜어드"]     사실 이런 일은 널리고 널렸어. 의료팀의 치료 구역에서도 도라 같은 경우는 쉽게 찾아볼 수 있지.
+    <t xml:space="preserve">[name="스튜어드"]     사실 이런 일은 널리고 널렸어. 의료부의 치료 구역에서도 도라 같은 경우는 쉽게 찾아볼 수 있지.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st01.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st01.xlsx
@@ -2832,7 +2832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">04:22 PM \ Clear
+    <t xml:space="preserve">04:22 P.M. \ Clear
 </t>
   </si>
   <si>
@@ -2936,11 +2936,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanilla"]     Franka likes to joke around, but she's actually really reliable. Puffball, Tiny, Biggie, and Stout all really love Franka!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Vanilla"]     Sometimes Jessica takes care of them, if I can't find those two. But, um, this one time, Biggie kind of startled her, and I think she was going to cry.
+    <t xml:space="preserve">[name="Vanilla"]     Franka likes to joke around, but she's actually really reliable. Puffball, Tiny, Kuro, and Stout all really love Franka!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Vanilla"]     Sometimes Jessica takes care of them, if I can't find those two. But, um, this one time, Kuro kind of startled her, and I think she was going to cry.
 </t>
   </si>
   <si>
@@ -2960,7 +2960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanilla"]     Puffball, Tiny, and Biggie are all Originium snails. And Stout is a Sargon Desert Metal Crab, and every last one of them is cute as a button! 
+    <t xml:space="preserve">[name="Vanilla"]     Puffball, Tiny, and Kuro are all Originium snails. And Stout is a Sargon Desert Metal Crab, and every last one of them is cute as a button! 
 </t>
   </si>
   <si>
@@ -2972,7 +2972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanilla"]     Oh no... I know that look in your eyes, Doctor. No! No! No! No! You can't eat them! Not Puffball, not Tiny, not Biggie, not Stout! You can't eat any of them! I know you've been eating all kinds of weird stuff behind Dr. Kal'tsit's back!
+    <t xml:space="preserve">[name="Vanilla"]     Oh no... I know that look in your eyes, Doctor. No! No! No! No! You can't eat them! Not Puffball, not Tiny, not Kuro, not Stout! You can't eat any of them! I know you've been eating all kinds of weird stuff behind Dr. Kal'tsit's back!
 </t>
   </si>
   <si>
@@ -3968,7 +3968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanilla"]     Oh, don't worry, Steward. Biggie may be big, but he's really the gentlest of them all!
+    <t xml:space="preserve">[name="Vanilla"]     Oh, don't worry, Steward. Kuro may be big, but he's really the gentlest of them all!
 </t>
   </si>
   <si>
